--- a/biology/Botanique/Liste_de_périodiques_botaniques/Liste_de_périodiques_botaniques.xlsx
+++ b/biology/Botanique/Liste_de_périodiques_botaniques/Liste_de_périodiques_botaniques.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F28"/>
+  <dimension ref="A1:H28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Liste_de_p%C3%A9riodiques_botaniques</t>
+          <t>Liste_de_périodiques_botaniques</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article liste des périodiques botaniques du monde entier et de langues diverses, actuels (titres en gras) ou disparus.
 Le nom du périodique est suivi, éventuellement, de la date de création (et de disparition pour les périodiques arrêtés), du nom de l'organisme botanique éditeur, du lieu d'édition, de l'ISSN, d'un lien vers le site officiel et de la mention, le cas échéant, des titres précédent(s) et suivant(s).
@@ -522,7 +534,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Liste_de_p%C3%A9riodiques_botaniques</t>
+          <t>Liste_de_périodiques_botaniques</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -540,7 +552,9 @@
           <t>A</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Acanthus
 Acta botanica Academiae Scientiarum Hungaricae, 1954-1982, Académie hongroise des sciences, Budapest, devient Acta botanica Hungarica en 1983
@@ -549,22 +563,22 @@
 Acta Botanica Bohemica, 1922-1944, Prague
 Acta Botanica Boreali-Occidentalia Sinica, 1980-, Académie des Sciences de Shaanxi  (ISSN 1000-4025)
 Acta botanica Brasilica, 1987?-, Société botanique du Brésil, São Paulo  (ISSN 0102-3306), disponible en ligne
-Acta botanica Croatica, 1957-, Institut botanique de l'Université de Zagreb  (ISSN 0365-0588), [1], succède à Acta Botanica Instituti Botanici Universitatis Zagrebensis
-Acta botanica Cubana, 1980-, Académie des sciences de Cuba, Institut d'écologie et de systématique  (ISSN 0255-7835), [2]
-Acta botanica Fennica, 1925-, Societas pro Fauna et Flora Fennica, Helsinki  (ISSN 0001-5369), [3]
-Acta botanica Gallica, 1993-2015, Société botanique de France  (ISSN 1253-8078), [4], succède à Bulletin de la Société botanique de France
+Acta botanica Croatica, 1957-, Institut botanique de l'Université de Zagreb  (ISSN 0365-0588), , succède à Acta Botanica Instituti Botanici Universitatis Zagrebensis
+Acta botanica Cubana, 1980-, Académie des sciences de Cuba, Institut d'écologie et de systématique  (ISSN 0255-7835), 
+Acta botanica Fennica, 1925-, Societas pro Fauna et Flora Fennica, Helsinki  (ISSN 0001-5369), 
+Acta botanica Gallica, 1993-2015, Société botanique de France  (ISSN 1253-8078), , succède à Bulletin de la Société botanique de France
 Acta botanica Horti Bucurestiensis, 1960-1997, Université de Bucarest, Jardin botanique Dimitrie Brândză, devient Acta Horti botanici Bucurestiensis en 1998
-Acta botanica Hungarica, 1983-, Académie hongroise des sciences, Budapest  (ISSN 0001-5350 et 1588-2578), [5], succède à Acta botanica Academiae Scientiarum Hungaricae
+Acta botanica Hungarica, 1983-, Académie hongroise des sciences, Budapest  (ISSN 0001-5350 et 1588-2578), , succède à Acta botanica Academiae Scientiarum Hungaricae
  Acta botanica Indica, 1973-, Meerut College, Society for the Advancement of Botany  (ISSN 0379-508X)
 Acta botanica Instituti botanici Universitatis Zagrebensis, 1925-1956, Institut botanique de l'Université de Zagreb, Zagreb, devient Acta botanica Croatica en 1957
 Acta botanica Islandica, 1972-, Institut d'histoire naturelle d'Islande, Reykjavik, Akureyri  (ISSN 0374-5066), succède à Flora : Timarit um Islenzka Grasafraedi
 Acta botanica Malacitana, 1975-, Département de Biologie végétale de l'Université de Malaga  (ISSN 0210-9506) disponible en ligne
-Acta botánica Mexicana, 1988-, Institut d'écologie, Pátzcuaro  (ISSN 0187-7151), [6]
+Acta botánica Mexicana, 1988-, Institut d'écologie, Pátzcuaro  (ISSN 0187-7151), 
 Acta botanica Neerlandica, 1952-, Société royale de botanique des Pays-Bas, Oxford (Blackwell)  (ISSN 0044-5983), fusion de Nederlandsch kruidkundig archief et Recueil des travaux botaniques néerlandais
 Acta botanica Sinica, 1952-2001, Université de Pékin et Académie chinoise des sciences  (ISSN 0577-7496), remplacé par Journal of Integrative Plant Biology de 2004 à 2008, puis devient Chinese Bulletin of Botany en 2008
 Acta botanica Slovaca, 1978-, Académie des sciences slovaque, Bratislava, remplace Acta Instituti Botanici Academiae Scientiarum Slovacae
 Acta botanica Venezuelica, 1965-, Jardin botanique de Caracas  (ISSN 0084-5906)
-Acta botanica Yunnanica, 1979-, Institut de botanique de Kunming, [7]
+Acta botanica Yunnanica, 1979-, Institut de botanique de Kunming, 
 Acta cientifica Potosina
 Acta Facultatis Rerum naturalium Universitatis Comenianae. Botanica, 1956-, Université Comenius à Bratislava
 Acta Facultatis Rerum naturalium Universitatis Comenianae. Physiologia Plantarum, 1970-, Université Comenius à Bratislava  (ISSN 0373-8205)
@@ -579,7 +593,7 @@
 Adansonia
 Albertoa, Département de Botanique du Musée National brésilien  (ISSN 0103-4944).
 Al Biruniya, 1985-1997, Revue marocaine de pharmacognosie, d'études ethnomédicales et de botanique appliquée, publiée par l'association Al Biruniya à Rabat
-Aliso, Jardin botanique de Rancho Santa Ana, à Claremont en Californie, [8]
+Aliso, Jardin botanique de Rancho Santa Ana, à Claremont en Californie, 
 Allertonia
 Allionia
 American Journal of Botany
@@ -590,11 +604,11 @@
 Annals of the Missouri Botanical Garden
 Aquatic Botany  (ISSN 0304-3770)
 Arboretum Kórnickie
-Arnoldia, Arnold Arboretum Harvard [9]
-Arnoldia (Munich), 1991-, [10]
+Arnoldia, Arnold Arboretum Harvard 
+Arnoldia (Munich), 1991-, 
 Aroideana
 Ashingtonia (1973-1979) - Cactacées - Publié par les Holly Gate Nurseries, Ashington, Sussex, Angleterre.
-Australian Journal of Botany [11].
+Australian Journal of Botany .
 Austrobaileya</t>
         </is>
       </c>
@@ -605,7 +619,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Liste_de_p%C3%A9riodiques_botaniques</t>
+          <t>Liste_de_périodiques_botaniques</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -623,24 +637,26 @@
           <t>B</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Baileya
 Balduinia
 Bangladesh Journal of Botany
 Bartonia
-Bauhinia (Basel/Bâle, Suisse) (de) [12].
+Bauhinia (Basel/Bâle, Suisse) (de) .
 Belgian Journal of Botany  (ISSN 0778-4031)
 Belmontia
 Biochemical Systematics and Ecology
 Biologia Plantarum
 Blancoana - Jaen (Espagne)
-Blumea - Journal de taxonomie et géographie botaniques du Nationaal Herbarium Nederland [13]
+Blumea - Journal de taxonomie et géographie botaniques du Nationaal Herbarium Nederland 
 Blyttia
 Bocconea - Titre dédié au naturaliste et botaniste sicilien Paolo Silvio Boccone (1633-1704)
 Boissiera
 Boletim de la Sociedade Broteriana
-Boletín de la Asociacion de herbarios iberico-macaronésicos - [14]
+Boletín de la Asociacion de herbarios iberico-macaronésicos - 
 Boletín de la Sociedad botanica de Mexico
 Bonplandia
 Botanica Helvetica -  (ISSN 0253-1453)
@@ -654,14 +670,14 @@
 Botanische Jahrbücher für Systematik, Pflanzengeschichte und Pflanzengeographie -  (ISSN 0006-8152)
 Botanisches Zentralblatt
 Botanisk Tidsskrift (Danemark)
-Botany Letters, 2016-, Société botanique de France  (ISSN 2381-8107), [15], succède à Acta Botanica Gallica
+Botany Letters, 2016-, Société botanique de France  (ISSN 2381-8107), , succède à Acta Botanica Gallica
 Bothalia
 Bradea
 Bradleya
 Braun-Blanquetia - Recueil de travaux de geobotanique (ISSN 0393-5434)
 Brenesia
 Brotéria
-Brittonia - Journal de systématique botanique du Jardin botanique de New-York [16]
+Brittonia - Journal de systématique botanique du Jardin botanique de New-York 
 Bromélia
 Brunonia - Antérieurement Contributions from Herbarium Australiense
 Bulletin de l'Association des Parcs Botaniques de France
@@ -685,7 +701,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Liste_de_p%C3%A9riodiques_botaniques</t>
+          <t>Liste_de_périodiques_botaniques</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -703,14 +719,16 @@
           <t>C</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Caesiana - Rome (Italie)
 Calyx
 Canadian Journal of Botany -  (ISSN 0008-4026)
 Canadian Journal of Forest Research
 Canadian Journal of Plant Pathology
-Candollea -  (ISSN 0373-2967) [17]
+Candollea -  (ISSN 0373-2967) 
 Castanea
 Cathaya
 Cavanellesia - Rerum botanicarum acta Barcelone
@@ -732,7 +750,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Liste_de_p%C3%A9riodiques_botaniques</t>
+          <t>Liste_de_périodiques_botaniques</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -750,10 +768,12 @@
           <t>D</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Darwiniana
-Davidsonia (1970-1981 puis 2002-)- Journal du Jardin botanique de l'Université de Colombie Britannique (Canada) - Créé en 1970 par Roy L. Taylor [18]
+Davidsonia (1970-1981 puis 2002-)- Journal du Jardin botanique de l'Université de Colombie Britannique (Canada) - Créé en 1970 par Roy L. Taylor 
 Dendrologia Florestal
 Desert Plants
 Deserta
@@ -770,7 +790,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Liste_de_p%C3%A9riodiques_botaniques</t>
+          <t>Liste_de_périodiques_botaniques</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -788,9 +808,11 @@
           <t>E</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Edinburgh Journal of Botany (Écosse) -  (ISSN 0960-4286) [19].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Edinburgh Journal of Botany (Écosse) -  (ISSN 0960-4286) .
 Elliottia
 Englera
 Erica (1992-) - Bulletin de botanique armoricaine (Massif armoricain, France) -  (ISSN 1167-7155)
@@ -804,7 +826,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Liste_de_p%C3%A9riodiques_botaniques</t>
+          <t>Liste_de_périodiques_botaniques</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -822,11 +844,13 @@
           <t>F</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>Feddes Repertorium
 Flora -  (ISSN 0367-2530)
-Flora Mediterranea [20]
+Flora Mediterranea 
 Flora : Timarit um Islenzka Grasafraedi, 1963-1968, Reykjavik  (ISSN 0430-6627), devient Acta botanica Islandica en 1973
 Folia biologica Andina
 Folia geobotanica phytotaxonomica
@@ -842,7 +866,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Liste_de_p%C3%A9riodiques_botaniques</t>
+          <t>Liste_de_périodiques_botaniques</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -860,14 +884,16 @@
           <t>G</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t>Gartenflora revue mensuelle fondée en 1852 par Eduard von Regel
 Gaussenia - Antérieurement Travaux du Laboratoire Forestier de Toulouse.
 Ginkgoana
 Giornale Botanico Italiano
 Gleditschia
-Gorteria - Flore sauvage des Pays-Bas [21]
+Gorteria - Flore sauvage des Pays-Bas 
 Grana
 Great Basin Naturalist
 Guihaia
@@ -881,7 +907,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Liste_de_p%C3%A9riodiques_botaniques</t>
+          <t>Liste_de_périodiques_botaniques</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -899,7 +925,9 @@
           <t>H</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t>Haussknechtia
 Herbertia
@@ -917,7 +945,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Liste_de_p%C3%A9riodiques_botaniques</t>
+          <t>Liste_de_périodiques_botaniques</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -935,10 +963,12 @@
           <t>I</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
         <is>
           <t>International Journal of Plant Sciences
-Isatis, revue botanique de la Haute-Garonne et du midi-toulousain [22]
+Isatis, revue botanique de la Haute-Garonne et du midi-toulousain 
 Iselya</t>
         </is>
       </c>
@@ -949,7 +979,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Liste_de_p%C3%A9riodiques_botaniques</t>
+          <t>Liste_de_périodiques_botaniques</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -967,13 +997,15 @@
           <t>J</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
         <is>
           <t>Japanese Journal of Botany
 Journal de botanique
 Journal of economic and taxonomic Botany
 Journal of Geobotany
-Journal of Integrative Plant Biology, 2004-, Société botanique de Chine et Académie chinoise des Sciences, [23], remplace Acta botanica Sinica de 2004 à 2008
+Journal of Integrative Plant Biology, 2004-, Société botanique de Chine et Académie chinoise des Sciences, , remplace Acta botanica Sinica de 2004 à 2008
 Journal of Japanese Botany
 Journal of South African Botany
 Journal of the Arnold Arboretum
@@ -989,7 +1021,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Liste_de_p%C3%A9riodiques_botaniques</t>
+          <t>Liste_de_périodiques_botaniques</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -1007,7 +1039,9 @@
           <t>K</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
         <is>
           <t>Kalmia
 Kew Bulletin
@@ -1024,7 +1058,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Liste_de_p%C3%A9riodiques_botaniques</t>
+          <t>Liste_de_périodiques_botaniques</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1042,9 +1076,11 @@
           <t>L</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>Lagascalia - Plantes vasculaires (principalement méditerranéennes) - Périodique scientifique international de Département de Biologie et d'écologie végétales de lUniversité de Séville [24]
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Lagascalia - Plantes vasculaires (principalement méditerranéennes) - Périodique scientifique international de Département de Biologie et d'écologie végétales de lUniversité de Séville 
 Lazaroa
 Lejeunia - Liège (Belgique)
 Lindbergia - Danemark
@@ -1063,7 +1099,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Liste_de_p%C3%A9riodiques_botaniques</t>
+          <t>Liste_de_périodiques_botaniques</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1081,7 +1117,9 @@
           <t>M</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
         <is>
           <t>Madroño
 Mentzelia
@@ -1090,7 +1128,7 @@
 Le monde des plantes
 Morris Arboretum Bulletin
 Moscosoa, périodique du Jardin botanique national de Saint-Domingue, République dominicaine.
-Musa, journal électronique du Jardin botanique national de Belgique [25]
+Musa, journal électronique du Jardin botanique national de Belgique 
 Mutisia, 1952-1995, Musée d'histoire naturelle et Institut des sciences naturelles de l'Université nationale de Colombie, Bogota  (ISSN 0027-5123)</t>
         </is>
       </c>
@@ -1101,7 +1139,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Liste_de_p%C3%A9riodiques_botaniques</t>
+          <t>Liste_de_périodiques_botaniques</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1119,7 +1157,9 @@
           <t>N</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
         <is>
           <t>Napaea
 Naturaliste Canadien
@@ -1127,7 +1167,7 @@
 New Phytologist
 New Zealand Journal of Botany
 Nordic Journal of Botany
-Norrlinia - Journal du Muséé de Botanique (Université d'Helsinki, Finlande). Le nom du périodique commémore Johan Petter Norrlin, [26]
+Norrlinia - Journal du Muséé de Botanique (Université d'Helsinki, Finlande). Le nom du périodique commémore Johan Petter Norrlin, 
 Notes of the Royal Botanic Gardens Edinburgh
 Notizblatt Botanische Garten Berlin-Dahlem
 Nova Hedwigia -  (ISSN 0029-5035)
@@ -1143,7 +1183,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Liste_de_p%C3%A9riodiques_botaniques</t>
+          <t>Liste_de_périodiques_botaniques</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1161,7 +1201,9 @@
           <t>O</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="F17" t="inlineStr"/>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr">
         <is>
           <t>Opera Botanica Belgica
 Österreiches Botanische Zeitschrift - Devenu Plant Systematics and Evolution.
@@ -1175,7 +1217,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Liste_de_p%C3%A9riodiques_botaniques</t>
+          <t>Liste_de_périodiques_botaniques</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1193,7 +1235,9 @@
           <t>P</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="F18" t="inlineStr"/>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr">
         <is>
           <t>Pabstia
 Palestine Journal of Botany
@@ -1208,7 +1252,7 @@
 Plant Systematics and Evolution
 Planta -  (ISSN 0032-0935)
 The Plantsman
-Preslia (1914-) - Journal de la Société botanique tchèque (Prague) - Son nom honore les frères Jan Svatopluk Presl (1791-1849) et Karel Bořivoj Presl (1794-1852)  (ISSN 0032-7786) [27]
+Preslia (1914-) - Journal de la Société botanique tchèque (Prague) - Son nom honore les frères Jan Svatopluk Presl (1791-1849) et Karel Bořivoj Presl (1794-1852)  (ISSN 0032-7786) 
 Provancheria, mémoires de l'Herbier Louis-Marie, Faculté d'Agriculture de l'Université de Laval, Québec.</t>
         </is>
       </c>
@@ -1219,7 +1263,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Liste_de_p%C3%A9riodiques_botaniques</t>
+          <t>Liste_de_périodiques_botaniques</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1237,7 +1281,9 @@
           <t>Q</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
+      <c r="F19" t="inlineStr"/>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr">
         <is>
           <t>Queensland Botany Bulletin</t>
         </is>
@@ -1249,7 +1295,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Liste_de_p%C3%A9riodiques_botaniques</t>
+          <t>Liste_de_périodiques_botaniques</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1267,7 +1313,9 @@
           <t>R</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
+      <c r="F20" t="inlineStr"/>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr">
         <is>
           <t>Raymondiana
 Recueil des travaux botaniques néerlandais, 1904-1950, Société Botanique Néerlandaise, Amsterdam, en 1952 fusionne avec Nederlandsch kruidkundig archief pour devenir Acta botanica Neerlandica
@@ -1276,8 +1324,8 @@
 Revue bretonne de Botanique
 Revue générale de Botanique
 Revue Horticole
-Rheedea (1991-) - Taxonomie des Angiospermes - Journal de l'Indian Association for Angiosperm Taxonomy (Inde) - [28]
-Rhodora (1899-) - Étude des plantes d'Amérique du Nord et plus particulièrement de la Nouvelle Angleterre - Journal du New England Botanical Club  (ISSN 0035-4902), [29]
+Rheedea (1991-) - Taxonomie des Angiospermes - Journal de l'Indian Association for Angiosperm Taxonomy (Inde) - 
+Rhodora (1899-) - Étude des plantes d'Amérique du Nord et plus particulièrement de la Nouvelle Angleterre - Journal du New England Botanical Club  (ISSN 0035-4902), 
 Rodriguésia
 Ruizia</t>
         </is>
@@ -1289,7 +1337,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Liste_de_p%C3%A9riodiques_botaniques</t>
+          <t>Liste_de_périodiques_botaniques</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1307,18 +1355,20 @@
           <t>S</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>Sandakania - Systématique, morphologie et histoire naturelle (Malaysia) [30]
+      <c r="F21" t="inlineStr"/>
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>Sandakania - Systématique, morphologie et histoire naturelle (Malaysia) 
 Sarsia
 Schlechteriana
-Selbyana - Journal du Jardin botanique Marie Selby (Floride) [31]
+Selbyana - Journal du Jardin botanique Marie Selby (Floride) 
 Sellowia -  (ISSN 0375-1651).
-Sendtnera [32]
-Sida, Contributions to Botany - Botanique systématique -  (ISSN 0036-1488) [33]
+Sendtnera 
+Sida, Contributions to Botany - Botanique systématique -  (ISSN 0036-1488) 
 Silvae Genetica
 Solanaceae Newsletter
-Sommerfeltia - Taxinomie, phytogéographie, phytosociologie écologie et morphologie végétales (Norvège) [34]
+Sommerfeltia - Taxinomie, phytogéographie, phytosociologie écologie et morphologie végétales (Norvège) 
 South-African Journal of Botany -  (ISSN 0254-6299)
 Southwestern Naturalist
 Stapfia
@@ -1335,7 +1385,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Liste_de_p%C3%A9riodiques_botaniques</t>
+          <t>Liste_de_périodiques_botaniques</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1353,10 +1403,12 @@
           <t>T</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
+      <c r="F22" t="inlineStr"/>
+      <c r="G22" t="inlineStr"/>
+      <c r="H22" t="inlineStr">
         <is>
           <t>Taxon
-Taxonomania - Revue de taxonomie et de nomenclature botaniques (Belgique) [35]
+Taxonomania - Revue de taxonomie et de nomenclature botaniques (Belgique) 
 Telopea
 Thaiszia - Journal de botanique slovaque -  (ISSN 1210-0420)
 Torreya
@@ -1370,7 +1422,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Liste_de_p%C3%A9riodiques_botaniques</t>
+          <t>Liste_de_périodiques_botaniques</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1388,7 +1440,9 @@
           <t>U</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
+      <c r="F23" t="inlineStr"/>
+      <c r="G23" t="inlineStr"/>
+      <c r="H23" t="inlineStr">
         <is>
           <t>Utafiti</t>
         </is>
@@ -1400,7 +1454,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Liste_de_p%C3%A9riodiques_botaniques</t>
+          <t>Liste_de_périodiques_botaniques</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1418,7 +1472,9 @@
           <t>V</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
+      <c r="F24" t="inlineStr"/>
+      <c r="G24" t="inlineStr"/>
+      <c r="H24" t="inlineStr">
         <is>
           <t>Växtodling
 Vegetatio -  (ISSN 1385-0237)
@@ -1432,7 +1488,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Liste_de_p%C3%A9riodiques_botaniques</t>
+          <t>Liste_de_périodiques_botaniques</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1450,15 +1506,17 @@
           <t>W</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr">
+      <c r="F25" t="inlineStr"/>
+      <c r="G25" t="inlineStr"/>
+      <c r="H25" t="inlineStr">
         <is>
           <t>Wahlenbergia
-Watsonia - Journal de la Botanical Society of the British Isles  (ISSN 0043-1532) [36]
+Watsonia - Journal de la Botanical Society of the British Isles  (ISSN 0043-1532) 
 Webbia
 Wentia
 Western Australian Herbarium Research Notes
-Willdenowia - Annales du Jardin Botanique et du Musée de Botanique du Musée de Berlin-Dahlem  (ISSN 0511-9618) [37]
-Willemetia - Bulletin de liaison de Floraine, association des botanistes lorrains (Lorraine, France) [38]
+Willdenowia - Annales du Jardin Botanique et du Musée de Botanique du Musée de Berlin-Dahlem  (ISSN 0511-9618) 
+Willemetia - Bulletin de liaison de Floraine, association des botanistes lorrains (Lorraine, France) 
 Wood and Fibre
 Wrightia</t>
         </is>
@@ -1470,7 +1528,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Liste_de_p%C3%A9riodiques_botaniques</t>
+          <t>Liste_de_périodiques_botaniques</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1489,6 +1547,8 @@
         </is>
       </c>
       <c r="F26" t="inlineStr"/>
+      <c r="G26" t="inlineStr"/>
+      <c r="H26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1496,7 +1556,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Liste_de_p%C3%A9riodiques_botaniques</t>
+          <t>Liste_de_périodiques_botaniques</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1515,6 +1575,8 @@
         </is>
       </c>
       <c r="F27" t="inlineStr"/>
+      <c r="G27" t="inlineStr"/>
+      <c r="H27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1522,7 +1584,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Liste_de_p%C3%A9riodiques_botaniques</t>
+          <t>Liste_de_périodiques_botaniques</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1540,7 +1602,9 @@
           <t>Z</t>
         </is>
       </c>
-      <c r="F28" t="inlineStr">
+      <c r="F28" t="inlineStr"/>
+      <c r="G28" t="inlineStr"/>
+      <c r="H28" t="inlineStr">
         <is>
           <t>Zandera  (ISSN 0940-9920)</t>
         </is>
